--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Il6-Il6st.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Il6-Il6st.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Il6st</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.1206186297509</v>
+        <v>10.233837</v>
       </c>
       <c r="H2">
-        <v>10.1206186297509</v>
+        <v>30.701511</v>
       </c>
       <c r="I2">
-        <v>0.1343119646836998</v>
+        <v>0.1267856545020524</v>
       </c>
       <c r="J2">
-        <v>0.1343119646836998</v>
+        <v>0.1267856545020524</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>86.23367163728911</v>
+        <v>86.40747066666665</v>
       </c>
       <c r="N2">
-        <v>86.23367163728911</v>
+        <v>259.222412</v>
       </c>
       <c r="O2">
-        <v>0.3394647070337256</v>
+        <v>0.3380062309947018</v>
       </c>
       <c r="P2">
-        <v>0.3394647070337256</v>
+        <v>0.3380062309947017</v>
       </c>
       <c r="Q2">
-        <v>872.73810368417</v>
+        <v>884.2799703849478</v>
       </c>
       <c r="R2">
-        <v>872.73810368417</v>
+        <v>7958.519733464531</v>
       </c>
       <c r="S2">
-        <v>0.04559417174247624</v>
+        <v>0.04285434122243519</v>
       </c>
       <c r="T2">
-        <v>0.04559417174247624</v>
+        <v>0.04285434122243517</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.1206186297509</v>
+        <v>10.233837</v>
       </c>
       <c r="H3">
-        <v>10.1206186297509</v>
+        <v>30.701511</v>
       </c>
       <c r="I3">
-        <v>0.1343119646836998</v>
+        <v>0.1267856545020524</v>
       </c>
       <c r="J3">
-        <v>0.1343119646836998</v>
+        <v>0.1267856545020524</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>124.270079842119</v>
+        <v>125.002688</v>
       </c>
       <c r="N3">
-        <v>124.270079842119</v>
+        <v>375.008064</v>
       </c>
       <c r="O3">
-        <v>0.4891976120893926</v>
+        <v>0.4889818797969518</v>
       </c>
       <c r="P3">
-        <v>0.4891976120893926</v>
+        <v>0.4889818797969517</v>
       </c>
       <c r="Q3">
-        <v>1257.690085170781</v>
+        <v>1279.257133553856</v>
       </c>
       <c r="R3">
-        <v>1257.690085170781</v>
+        <v>11513.3142019847</v>
       </c>
       <c r="S3">
-        <v>0.06570509239830077</v>
+        <v>0.06199588766970046</v>
       </c>
       <c r="T3">
-        <v>0.06570509239830077</v>
+        <v>0.06199588766970045</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.1206186297509</v>
+        <v>10.233837</v>
       </c>
       <c r="H4">
-        <v>10.1206186297509</v>
+        <v>30.701511</v>
       </c>
       <c r="I4">
-        <v>0.1343119646836998</v>
+        <v>0.1267856545020524</v>
       </c>
       <c r="J4">
-        <v>0.1343119646836998</v>
+        <v>0.1267856545020524</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.881087590781</v>
+        <v>15.01290066666667</v>
       </c>
       <c r="N4">
-        <v>14.881087590781</v>
+        <v>45.038702</v>
       </c>
       <c r="O4">
-        <v>0.05858041230803015</v>
+        <v>0.05872702824751719</v>
       </c>
       <c r="P4">
-        <v>0.05858041230803015</v>
+        <v>0.05872702824751717</v>
       </c>
       <c r="Q4">
-        <v>150.6058123022131</v>
+        <v>153.639578319858</v>
       </c>
       <c r="R4">
-        <v>150.6058123022131</v>
+        <v>1382.756204878722</v>
       </c>
       <c r="S4">
-        <v>0.007868050269072719</v>
+        <v>0.007445744713321987</v>
       </c>
       <c r="T4">
-        <v>0.007868050269072719</v>
+        <v>0.007445744713321985</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.1206186297509</v>
+        <v>10.233837</v>
       </c>
       <c r="H5">
-        <v>10.1206186297509</v>
+        <v>30.701511</v>
       </c>
       <c r="I5">
-        <v>0.1343119646836998</v>
+        <v>0.1267856545020524</v>
       </c>
       <c r="J5">
-        <v>0.1343119646836998</v>
+        <v>0.1267856545020524</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.8799611394544</v>
+        <v>16.92374966666667</v>
       </c>
       <c r="N5">
-        <v>16.8799611394544</v>
+        <v>50.771249</v>
       </c>
       <c r="O5">
-        <v>0.06644911383394851</v>
+        <v>0.06620183179756665</v>
       </c>
       <c r="P5">
-        <v>0.06644911383394851</v>
+        <v>0.06620183179756664</v>
       </c>
       <c r="Q5">
-        <v>170.8356491774335</v>
+        <v>173.194895517471</v>
       </c>
       <c r="R5">
-        <v>170.8356491774335</v>
+        <v>1558.754059657239</v>
       </c>
       <c r="S5">
-        <v>0.00892491103052844</v>
+        <v>0.008393442573689274</v>
       </c>
       <c r="T5">
-        <v>0.00892491103052844</v>
+        <v>0.008393442573689272</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.1206186297509</v>
+        <v>10.233837</v>
       </c>
       <c r="H6">
-        <v>10.1206186297509</v>
+        <v>30.701511</v>
       </c>
       <c r="I6">
-        <v>0.1343119646836998</v>
+        <v>0.1267856545020524</v>
       </c>
       <c r="J6">
-        <v>0.1343119646836998</v>
+        <v>0.1267856545020524</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.7635858067027</v>
+        <v>12.29188266666667</v>
       </c>
       <c r="N6">
-        <v>11.7635858067027</v>
+        <v>36.875648</v>
       </c>
       <c r="O6">
-        <v>0.04630815473490328</v>
+        <v>0.04808302916326276</v>
       </c>
       <c r="P6">
-        <v>0.04630815473490328</v>
+        <v>0.04808302916326274</v>
       </c>
       <c r="Q6">
-        <v>119.0547656679886</v>
+        <v>125.793123633792</v>
       </c>
       <c r="R6">
-        <v>119.0547656679886</v>
+        <v>1132.138112704128</v>
       </c>
       <c r="S6">
-        <v>0.006219739243321635</v>
+        <v>0.006096238322905543</v>
       </c>
       <c r="T6">
-        <v>0.006219739243321635</v>
+        <v>0.006096238322905541</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>61.6997035769876</v>
+        <v>62.17948766666667</v>
       </c>
       <c r="H7">
-        <v>61.6997035769876</v>
+        <v>186.538463</v>
       </c>
       <c r="I7">
-        <v>0.8188242943436624</v>
+        <v>0.7703334575702768</v>
       </c>
       <c r="J7">
-        <v>0.8188242943436624</v>
+        <v>0.7703334575702769</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>86.23367163728911</v>
+        <v>86.40747066666665</v>
       </c>
       <c r="N7">
-        <v>86.23367163728911</v>
+        <v>259.222412</v>
       </c>
       <c r="O7">
-        <v>0.3394647070337256</v>
+        <v>0.3380062309947018</v>
       </c>
       <c r="P7">
-        <v>0.3394647070337256</v>
+        <v>0.3380062309947017</v>
       </c>
       <c r="Q7">
-        <v>5320.591978376021</v>
+        <v>5372.772256625861</v>
       </c>
       <c r="R7">
-        <v>5320.591978376021</v>
+        <v>48354.95030963275</v>
       </c>
       <c r="S7">
-        <v>0.2779619491914684</v>
+        <v>0.2603775086024463</v>
       </c>
       <c r="T7">
-        <v>0.2779619491914684</v>
+        <v>0.2603775086024462</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>61.6997035769876</v>
+        <v>62.17948766666667</v>
       </c>
       <c r="H8">
-        <v>61.6997035769876</v>
+        <v>186.538463</v>
       </c>
       <c r="I8">
-        <v>0.8188242943436624</v>
+        <v>0.7703334575702768</v>
       </c>
       <c r="J8">
-        <v>0.8188242943436624</v>
+        <v>0.7703334575702769</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>124.270079842119</v>
+        <v>125.002688</v>
       </c>
       <c r="N8">
-        <v>124.270079842119</v>
+        <v>375.008064</v>
       </c>
       <c r="O8">
-        <v>0.4891976120893926</v>
+        <v>0.4889818797969518</v>
       </c>
       <c r="P8">
-        <v>0.4891976120893926</v>
+        <v>0.4889818797969517</v>
       </c>
       <c r="Q8">
-        <v>7667.427089747324</v>
+        <v>7772.603096796181</v>
       </c>
       <c r="R8">
-        <v>7667.427089747324</v>
+        <v>69953.42787116564</v>
       </c>
       <c r="S8">
-        <v>0.4005668895137016</v>
+        <v>0.3766791021531994</v>
       </c>
       <c r="T8">
-        <v>0.4005668895137016</v>
+        <v>0.3766791021531994</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>61.6997035769876</v>
+        <v>62.17948766666667</v>
       </c>
       <c r="H9">
-        <v>61.6997035769876</v>
+        <v>186.538463</v>
       </c>
       <c r="I9">
-        <v>0.8188242943436624</v>
+        <v>0.7703334575702768</v>
       </c>
       <c r="J9">
-        <v>0.8188242943436624</v>
+        <v>0.7703334575702769</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>14.881087590781</v>
+        <v>15.01290066666667</v>
       </c>
       <c r="N9">
-        <v>14.881087590781</v>
+        <v>45.038702</v>
       </c>
       <c r="O9">
-        <v>0.05858041230803015</v>
+        <v>0.05872702824751719</v>
       </c>
       <c r="P9">
-        <v>0.05858041230803015</v>
+        <v>0.05872702824751717</v>
       </c>
       <c r="Q9">
-        <v>918.1586932543763</v>
+        <v>933.4944718438918</v>
       </c>
       <c r="R9">
-        <v>918.1586932543763</v>
+        <v>8401.450246595026</v>
       </c>
       <c r="S9">
-        <v>0.04796706477048358</v>
+        <v>0.04523939472273723</v>
       </c>
       <c r="T9">
-        <v>0.04796706477048358</v>
+        <v>0.04523939472273723</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>61.6997035769876</v>
+        <v>62.17948766666667</v>
       </c>
       <c r="H10">
-        <v>61.6997035769876</v>
+        <v>186.538463</v>
       </c>
       <c r="I10">
-        <v>0.8188242943436624</v>
+        <v>0.7703334575702768</v>
       </c>
       <c r="J10">
-        <v>0.8188242943436624</v>
+        <v>0.7703334575702769</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>16.8799611394544</v>
+        <v>16.92374966666667</v>
       </c>
       <c r="N10">
-        <v>16.8799611394544</v>
+        <v>50.771249</v>
       </c>
       <c r="O10">
-        <v>0.06644911383394851</v>
+        <v>0.06620183179756665</v>
       </c>
       <c r="P10">
-        <v>0.06644911383394851</v>
+        <v>0.06620183179756664</v>
       </c>
       <c r="Q10">
-        <v>1041.488598695406</v>
+        <v>1052.310083672254</v>
       </c>
       <c r="R10">
-        <v>1041.488598695406</v>
+        <v>9470.790753050287</v>
       </c>
       <c r="S10">
-        <v>0.05441014874484459</v>
+        <v>0.05099748598610541</v>
       </c>
       <c r="T10">
-        <v>0.05441014874484459</v>
+        <v>0.05099748598610541</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>61.6997035769876</v>
+        <v>62.17948766666667</v>
       </c>
       <c r="H11">
-        <v>61.6997035769876</v>
+        <v>186.538463</v>
       </c>
       <c r="I11">
-        <v>0.8188242943436624</v>
+        <v>0.7703334575702768</v>
       </c>
       <c r="J11">
-        <v>0.8188242943436624</v>
+        <v>0.7703334575702769</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>11.7635858067027</v>
+        <v>12.29188266666667</v>
       </c>
       <c r="N11">
-        <v>11.7635858067027</v>
+        <v>36.875648</v>
       </c>
       <c r="O11">
-        <v>0.04630815473490328</v>
+        <v>0.04808302916326276</v>
       </c>
       <c r="P11">
-        <v>0.04630815473490328</v>
+        <v>0.04808302916326274</v>
       </c>
       <c r="Q11">
-        <v>725.8097572760151</v>
+        <v>764.3029666721137</v>
       </c>
       <c r="R11">
-        <v>725.8097572760151</v>
+        <v>6878.726700049024</v>
       </c>
       <c r="S11">
-        <v>0.03791824212316431</v>
+        <v>0.03703996610578866</v>
       </c>
       <c r="T11">
-        <v>0.03791824212316431</v>
+        <v>0.03703996610578865</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.9271114404342859</v>
+        <v>0.4156373333333334</v>
       </c>
       <c r="H12">
-        <v>0.9271114404342859</v>
+        <v>1.246912</v>
       </c>
       <c r="I12">
-        <v>0.0123038090457647</v>
+        <v>0.00514927600880827</v>
       </c>
       <c r="J12">
-        <v>0.0123038090457647</v>
+        <v>0.00514927600880827</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>86.23367163728911</v>
+        <v>86.40747066666665</v>
       </c>
       <c r="N12">
-        <v>86.23367163728911</v>
+        <v>259.222412</v>
       </c>
       <c r="O12">
-        <v>0.3394647070337256</v>
+        <v>0.3380062309947018</v>
       </c>
       <c r="P12">
-        <v>0.3394647070337256</v>
+        <v>0.3380062309947017</v>
       </c>
       <c r="Q12">
-        <v>79.94822352558434</v>
+        <v>35.91417068797156</v>
       </c>
       <c r="R12">
-        <v>79.94822352558434</v>
+        <v>323.227536191744</v>
       </c>
       <c r="S12">
-        <v>0.004176708933119416</v>
+        <v>0.001740487376088724</v>
       </c>
       <c r="T12">
-        <v>0.004176708933119416</v>
+        <v>0.001740487376088724</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.9271114404342859</v>
+        <v>0.4156373333333334</v>
       </c>
       <c r="H13">
-        <v>0.9271114404342859</v>
+        <v>1.246912</v>
       </c>
       <c r="I13">
-        <v>0.0123038090457647</v>
+        <v>0.00514927600880827</v>
       </c>
       <c r="J13">
-        <v>0.0123038090457647</v>
+        <v>0.00514927600880827</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>124.270079842119</v>
+        <v>125.002688</v>
       </c>
       <c r="N13">
-        <v>124.270079842119</v>
+        <v>375.008064</v>
       </c>
       <c r="O13">
-        <v>0.4891976120893926</v>
+        <v>0.4889818797969518</v>
       </c>
       <c r="P13">
-        <v>0.4891976120893926</v>
+        <v>0.4889818797969517</v>
       </c>
       <c r="Q13">
-        <v>115.2122127253107</v>
+        <v>51.95578389981867</v>
       </c>
       <c r="R13">
-        <v>115.2122127253107</v>
+        <v>467.602055098368</v>
       </c>
       <c r="S13">
-        <v>0.006018994004791959</v>
+        <v>0.002517902662380413</v>
       </c>
       <c r="T13">
-        <v>0.006018994004791959</v>
+        <v>0.002517902662380413</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.9271114404342859</v>
+        <v>0.4156373333333334</v>
       </c>
       <c r="H14">
-        <v>0.9271114404342859</v>
+        <v>1.246912</v>
       </c>
       <c r="I14">
-        <v>0.0123038090457647</v>
+        <v>0.00514927600880827</v>
       </c>
       <c r="J14">
-        <v>0.0123038090457647</v>
+        <v>0.00514927600880827</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>14.881087590781</v>
+        <v>15.01290066666667</v>
       </c>
       <c r="N14">
-        <v>14.881087590781</v>
+        <v>45.038702</v>
       </c>
       <c r="O14">
-        <v>0.05858041230803015</v>
+        <v>0.05872702824751719</v>
       </c>
       <c r="P14">
-        <v>0.05858041230803015</v>
+        <v>0.05872702824751717</v>
       </c>
       <c r="Q14">
-        <v>13.79642655151775</v>
+        <v>6.239921998691556</v>
       </c>
       <c r="R14">
-        <v>13.79642655151775</v>
+        <v>56.159297988224</v>
       </c>
       <c r="S14">
-        <v>0.0007207622068601671</v>
+        <v>0.0003024016776235458</v>
       </c>
       <c r="T14">
-        <v>0.0007207622068601671</v>
+        <v>0.0003024016776235458</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.9271114404342859</v>
+        <v>0.4156373333333334</v>
       </c>
       <c r="H15">
-        <v>0.9271114404342859</v>
+        <v>1.246912</v>
       </c>
       <c r="I15">
-        <v>0.0123038090457647</v>
+        <v>0.00514927600880827</v>
       </c>
       <c r="J15">
-        <v>0.0123038090457647</v>
+        <v>0.00514927600880827</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>16.8799611394544</v>
+        <v>16.92374966666667</v>
       </c>
       <c r="N15">
-        <v>16.8799611394544</v>
+        <v>50.771249</v>
       </c>
       <c r="O15">
-        <v>0.06644911383394851</v>
+        <v>0.06620183179756665</v>
       </c>
       <c r="P15">
-        <v>0.06644911383394851</v>
+        <v>0.06620183179756664</v>
       </c>
       <c r="Q15">
-        <v>15.64960508647434</v>
+        <v>7.034142181454222</v>
       </c>
       <c r="R15">
-        <v>15.64960508647434</v>
+        <v>63.307279633088</v>
       </c>
       <c r="S15">
-        <v>0.0008175772078731839</v>
+        <v>0.0003408915042143704</v>
       </c>
       <c r="T15">
-        <v>0.0008175772078731839</v>
+        <v>0.0003408915042143704</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.9271114404342859</v>
+        <v>0.4156373333333334</v>
       </c>
       <c r="H16">
-        <v>0.9271114404342859</v>
+        <v>1.246912</v>
       </c>
       <c r="I16">
-        <v>0.0123038090457647</v>
+        <v>0.00514927600880827</v>
       </c>
       <c r="J16">
-        <v>0.0123038090457647</v>
+        <v>0.00514927600880827</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>11.7635858067027</v>
+        <v>12.29188266666667</v>
       </c>
       <c r="N16">
-        <v>11.7635858067027</v>
+        <v>36.875648</v>
       </c>
       <c r="O16">
-        <v>0.04630815473490328</v>
+        <v>0.04808302916326276</v>
       </c>
       <c r="P16">
-        <v>0.04630815473490328</v>
+        <v>0.04808302916326274</v>
       </c>
       <c r="Q16">
-        <v>10.90615498192446</v>
+        <v>5.108965333219555</v>
       </c>
       <c r="R16">
-        <v>10.90615498192446</v>
+        <v>45.980687998976</v>
       </c>
       <c r="S16">
-        <v>0.0005697666931199744</v>
+        <v>0.0002475927885012173</v>
       </c>
       <c r="T16">
-        <v>0.0005697666931199744</v>
+        <v>0.0002475927885012173</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,61 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.60414544397237</v>
+        <v>4.718079333333334</v>
       </c>
       <c r="H17">
-        <v>2.60414544397237</v>
+        <v>14.154238</v>
       </c>
       <c r="I17">
-        <v>0.03455993192687309</v>
+        <v>0.0584516615096834</v>
       </c>
       <c r="J17">
-        <v>0.03455993192687309</v>
+        <v>0.05845166150968341</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>86.23367163728911</v>
+        <v>86.40747066666665</v>
       </c>
       <c r="N17">
-        <v>86.23367163728911</v>
+        <v>259.222412</v>
       </c>
       <c r="O17">
-        <v>0.3394647070337256</v>
+        <v>0.3380062309947018</v>
       </c>
       <c r="P17">
-        <v>0.3394647070337256</v>
+        <v>0.3380062309947017</v>
       </c>
       <c r="Q17">
-        <v>224.5650231112558</v>
+        <v>407.6773015980062</v>
       </c>
       <c r="R17">
-        <v>224.5650231112558</v>
+        <v>3669.095714382056</v>
       </c>
       <c r="S17">
-        <v>0.01173187716666147</v>
+        <v>0.01975702580226617</v>
       </c>
       <c r="T17">
-        <v>0.01173187716666147</v>
+        <v>0.01975702580226616</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,61 +1517,61 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.60414544397237</v>
+        <v>4.718079333333334</v>
       </c>
       <c r="H18">
-        <v>2.60414544397237</v>
+        <v>14.154238</v>
       </c>
       <c r="I18">
-        <v>0.03455993192687309</v>
+        <v>0.0584516615096834</v>
       </c>
       <c r="J18">
-        <v>0.03455993192687309</v>
+        <v>0.05845166150968341</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>124.270079842119</v>
+        <v>125.002688</v>
       </c>
       <c r="N18">
-        <v>124.270079842119</v>
+        <v>375.008064</v>
       </c>
       <c r="O18">
-        <v>0.4891976120893926</v>
+        <v>0.4889818797969518</v>
       </c>
       <c r="P18">
-        <v>0.4891976120893926</v>
+        <v>0.4889818797969517</v>
       </c>
       <c r="Q18">
-        <v>323.6173622429368</v>
+        <v>589.7725988639147</v>
       </c>
       <c r="R18">
-        <v>323.6173622429368</v>
+        <v>5307.953389775233</v>
       </c>
       <c r="S18">
-        <v>0.01690663617259828</v>
+        <v>0.02858180332226012</v>
       </c>
       <c r="T18">
-        <v>0.01690663617259828</v>
+        <v>0.02858180332226012</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,61 +1579,61 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.60414544397237</v>
+        <v>4.718079333333334</v>
       </c>
       <c r="H19">
-        <v>2.60414544397237</v>
+        <v>14.154238</v>
       </c>
       <c r="I19">
-        <v>0.03455993192687309</v>
+        <v>0.0584516615096834</v>
       </c>
       <c r="J19">
-        <v>0.03455993192687309</v>
+        <v>0.05845166150968341</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>14.881087590781</v>
+        <v>15.01290066666667</v>
       </c>
       <c r="N19">
-        <v>14.881087590781</v>
+        <v>45.038702</v>
       </c>
       <c r="O19">
-        <v>0.05858041230803015</v>
+        <v>0.05872702824751719</v>
       </c>
       <c r="P19">
-        <v>0.05858041230803015</v>
+        <v>0.05872702824751717</v>
       </c>
       <c r="Q19">
-        <v>38.75251645088611</v>
+        <v>70.83205636878623</v>
       </c>
       <c r="R19">
-        <v>38.75251645088611</v>
+        <v>637.4885073190761</v>
       </c>
       <c r="S19">
-        <v>0.00202453506161368</v>
+        <v>0.00343269237659349</v>
       </c>
       <c r="T19">
-        <v>0.00202453506161368</v>
+        <v>0.00343269237659349</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,61 +1641,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.60414544397237</v>
+        <v>4.718079333333334</v>
       </c>
       <c r="H20">
-        <v>2.60414544397237</v>
+        <v>14.154238</v>
       </c>
       <c r="I20">
-        <v>0.03455993192687309</v>
+        <v>0.0584516615096834</v>
       </c>
       <c r="J20">
-        <v>0.03455993192687309</v>
+        <v>0.05845166150968341</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>16.8799611394544</v>
+        <v>16.92374966666667</v>
       </c>
       <c r="N20">
-        <v>16.8799611394544</v>
+        <v>50.771249</v>
       </c>
       <c r="O20">
-        <v>0.06644911383394851</v>
+        <v>0.06620183179756665</v>
       </c>
       <c r="P20">
-        <v>0.06644911383394851</v>
+        <v>0.06620183179756664</v>
       </c>
       <c r="Q20">
-        <v>43.95787389574083</v>
+        <v>79.8475935448069</v>
       </c>
       <c r="R20">
-        <v>43.95787389574083</v>
+        <v>718.628341903262</v>
       </c>
       <c r="S20">
-        <v>0.002296476850702301</v>
+        <v>0.003869607063552361</v>
       </c>
       <c r="T20">
-        <v>0.002296476850702301</v>
+        <v>0.003869607063552361</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>4.718079333333334</v>
+      </c>
+      <c r="H21">
+        <v>14.154238</v>
+      </c>
+      <c r="I21">
+        <v>0.0584516615096834</v>
+      </c>
+      <c r="J21">
+        <v>0.05845166150968341</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>12.29188266666667</v>
+      </c>
+      <c r="N21">
+        <v>36.875648</v>
+      </c>
+      <c r="O21">
+        <v>0.04808302916326276</v>
+      </c>
+      <c r="P21">
+        <v>0.04808302916326274</v>
+      </c>
+      <c r="Q21">
+        <v>57.99407757735823</v>
+      </c>
+      <c r="R21">
+        <v>521.946698196224</v>
+      </c>
+      <c r="S21">
+        <v>0.00281053294501127</v>
+      </c>
+      <c r="T21">
+        <v>0.00281053294501127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>3.170584333333333</v>
+      </c>
+      <c r="H22">
+        <v>9.511752999999999</v>
+      </c>
+      <c r="I22">
+        <v>0.0392799504091789</v>
+      </c>
+      <c r="J22">
+        <v>0.0392799504091789</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>86.40747066666665</v>
+      </c>
+      <c r="N22">
+        <v>259.222412</v>
+      </c>
+      <c r="O22">
+        <v>0.3380062309947018</v>
+      </c>
+      <c r="P22">
+        <v>0.3380062309947017</v>
+      </c>
+      <c r="Q22">
+        <v>273.9621727786928</v>
+      </c>
+      <c r="R22">
+        <v>2465.659555008235</v>
+      </c>
+      <c r="S22">
+        <v>0.01327686799146535</v>
+      </c>
+      <c r="T22">
+        <v>0.01327686799146535</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>3.170584333333333</v>
+      </c>
+      <c r="H23">
+        <v>9.511752999999999</v>
+      </c>
+      <c r="I23">
+        <v>0.0392799504091789</v>
+      </c>
+      <c r="J23">
+        <v>0.0392799504091789</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>125.002688</v>
+      </c>
+      <c r="N23">
+        <v>375.008064</v>
+      </c>
+      <c r="O23">
+        <v>0.4889818797969518</v>
+      </c>
+      <c r="P23">
+        <v>0.4889818797969517</v>
+      </c>
+      <c r="Q23">
+        <v>396.3315641973546</v>
+      </c>
+      <c r="R23">
+        <v>3566.984077776191</v>
+      </c>
+      <c r="S23">
+        <v>0.01920718398941134</v>
+      </c>
+      <c r="T23">
+        <v>0.01920718398941134</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>3.170584333333333</v>
+      </c>
+      <c r="H24">
+        <v>9.511752999999999</v>
+      </c>
+      <c r="I24">
+        <v>0.0392799504091789</v>
+      </c>
+      <c r="J24">
+        <v>0.0392799504091789</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>15.01290066666667</v>
+      </c>
+      <c r="N24">
+        <v>45.038702</v>
+      </c>
+      <c r="O24">
+        <v>0.05872702824751719</v>
+      </c>
+      <c r="P24">
+        <v>0.05872702824751717</v>
+      </c>
+      <c r="Q24">
+        <v>47.59966765162288</v>
+      </c>
+      <c r="R24">
+        <v>428.3970088646059</v>
+      </c>
+      <c r="S24">
+        <v>0.002306794757240924</v>
+      </c>
+      <c r="T24">
+        <v>0.002306794757240923</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>2.60414544397237</v>
-      </c>
-      <c r="H21">
-        <v>2.60414544397237</v>
-      </c>
-      <c r="I21">
-        <v>0.03455993192687309</v>
-      </c>
-      <c r="J21">
-        <v>0.03455993192687309</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>11.7635858067027</v>
-      </c>
-      <c r="N21">
-        <v>11.7635858067027</v>
-      </c>
-      <c r="O21">
-        <v>0.04630815473490328</v>
-      </c>
-      <c r="P21">
-        <v>0.04630815473490328</v>
-      </c>
-      <c r="Q21">
-        <v>30.63408838330287</v>
-      </c>
-      <c r="R21">
-        <v>30.63408838330287</v>
-      </c>
-      <c r="S21">
-        <v>0.001600406675297363</v>
-      </c>
-      <c r="T21">
-        <v>0.001600406675297363</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>3.170584333333333</v>
+      </c>
+      <c r="H25">
+        <v>9.511752999999999</v>
+      </c>
+      <c r="I25">
+        <v>0.0392799504091789</v>
+      </c>
+      <c r="J25">
+        <v>0.0392799504091789</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>16.92374966666667</v>
+      </c>
+      <c r="N25">
+        <v>50.771249</v>
+      </c>
+      <c r="O25">
+        <v>0.06620183179756665</v>
+      </c>
+      <c r="P25">
+        <v>0.06620183179756664</v>
+      </c>
+      <c r="Q25">
+        <v>53.65817555438854</v>
+      </c>
+      <c r="R25">
+        <v>482.9235799894969</v>
+      </c>
+      <c r="S25">
+        <v>0.002600404670005221</v>
+      </c>
+      <c r="T25">
+        <v>0.00260040467000522</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>3.170584333333333</v>
+      </c>
+      <c r="H26">
+        <v>9.511752999999999</v>
+      </c>
+      <c r="I26">
+        <v>0.0392799504091789</v>
+      </c>
+      <c r="J26">
+        <v>0.0392799504091789</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>12.29188266666667</v>
+      </c>
+      <c r="N26">
+        <v>36.875648</v>
+      </c>
+      <c r="O26">
+        <v>0.04808302916326276</v>
+      </c>
+      <c r="P26">
+        <v>0.04808302916326274</v>
+      </c>
+      <c r="Q26">
+        <v>38.97245061010488</v>
+      </c>
+      <c r="R26">
+        <v>350.7520554909439</v>
+      </c>
+      <c r="S26">
+        <v>0.001888699001056064</v>
+      </c>
+      <c r="T26">
+        <v>0.001888699001056063</v>
       </c>
     </row>
   </sheetData>
